--- a/output/StructureDefinition-Organization.xlsx
+++ b/output/StructureDefinition-Organization.xlsx
@@ -1632,17 +1632,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1651,26 +1651,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.3359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="42.12109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="96.00390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="201.93359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-Organization.xlsx
+++ b/output/StructureDefinition-Organization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/StructureDefinition/Organization</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/Organization</t>
   </si>
   <si>
     <t>Version</t>
